--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3591655.496700034</v>
+        <v>3696441.144284837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7633490.215706028</v>
+        <v>7613647.950485109</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>260.9700250268913</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>153.0471678767946</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8283365204685</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>173.5536163890385</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>189.2133623690054</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>394.6060839388453</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.98417481962758</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>9.286690658959145</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>5.400304892655044</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>38.94671141087646</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>115.8416516122276</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9473191683476</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576155</v>
@@ -1427,13 +1429,13 @@
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>191.7762188374877</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881282</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>104.6857048437763</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>1.043911798778986</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.55707494718542</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>94.03099112488283</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>105.5373371683558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444232116</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>39.38542099944637</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>66.24118421664595</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541839</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808113</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>14.53306611597401</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>5.640152769375668</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898977</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>53.82913822150265</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652591</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808068</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S43" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317884</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="44">
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>174.7683347992597</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1917.382287315189</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.419770374778</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1096.271570409901</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1096.271570409901</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>685.2856656202932</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>1917.382287315189</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y2" t="n">
-        <v>1917.382287315189</v>
+        <v>1841.137109080773</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1902.475099854303</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="C4" t="n">
-        <v>1902.475099854303</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D4" t="n">
-        <v>1902.475099854303</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E4" t="n">
-        <v>1902.475099854303</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>1755.585152356393</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>1587.882315731112</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.32286476305</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.32286476305</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>2822.32286476305</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W4" t="n">
-        <v>2532.90569472609</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="X4" t="n">
-        <v>2304.916143828073</v>
+        <v>1172.021099357084</v>
       </c>
       <c r="Y4" t="n">
-        <v>2084.123564684543</v>
+        <v>951.2285202135537</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221568</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.278680221568</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>546.2888279392355</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>377.3526450113286</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.25816976153</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.25816976153</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.465590618</v>
+        <v>546.2888279392355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.038871968309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>879.773173361559</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>493.9849207633147</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>82.99901597370717</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>71.96696985910772</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>71.96696985910772</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3286.265709072931</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3032.735232346768</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2701.672345003197</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2348.903689733083</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2348.903689733083</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.555433640143</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C10" t="n">
-        <v>359.619250712236</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1185.6809658198</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>930.9964776139128</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>930.9964776139128</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>930.9964776139128</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y10" t="n">
-        <v>710.2038984703827</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5057,22 +5059,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5306,10 +5308,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429803</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>3045.561952449533</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>2876.625769521626</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>3227.210417279773</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,7 +5989,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167111</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
         <v>549.6145409888043</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2102.081746371524</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1813.006519715722</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1558.322031509835</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>954.2476448606602</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y28" t="n">
-        <v>1135.8961096909</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3415.416714642996</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3194.624135499466</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6722,16 +6724,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6789,16 +6791,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213311</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247061</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796381</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175645</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.75711663939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315927</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729352</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176795</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719453</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337794</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612654</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229215</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.920990213812</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519665</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275434</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.33394620013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081895</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7011,28 +7013,28 @@
         <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N36" t="n">
-        <v>4435.461999481584</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O36" t="n">
-        <v>4435.461999481584</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P36" t="n">
-        <v>4435.461999481584</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q36" t="n">
         <v>4654.193497445481</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,7 +7447,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>695.5020655703134</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>695.5020655703134</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>545.3854261579778</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>397.4723325755848</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>916.2946447138435</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>36.58048154589974</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>129.4330134067484</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>126.0028419604372</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.93343655154945</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>181.8372934928148</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>147.5715612194334</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393101</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>123.3744592024054</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>61.70948393027203</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>260.4525338942698</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>186.3242343895908</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>113.5907959652913</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>271.989932220617</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>212.9445005827191</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>91.59190980142847</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>665372.6314015993</v>
+        <v>673691.3299030984</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>665372.6314015993</v>
+        <v>673691.3299030984</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665372.6314015993</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710695</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710692</v>
-      </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="I2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710693</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710696</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.614506921984933e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936317</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.027935512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="D4" t="n">
         <v>88524.23512810792</v>
       </c>
-      <c r="C4" t="n">
-        <v>88524.23512810787</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88524.23512810784</v>
-      </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756539</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756546</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756639</v>
+        <v>9337.200356756559</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985009</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985002</v>
+        <v>9337.200356756672</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745213.2400460248</v>
+        <v>-564426.1483367974</v>
       </c>
       <c r="C6" t="n">
-        <v>583531.5056815678</v>
+        <v>550325.6352391223</v>
       </c>
       <c r="D6" t="n">
-        <v>583531.5056815681</v>
+        <v>390904.36524123</v>
       </c>
       <c r="E6" t="n">
-        <v>330917.0777174871</v>
+        <v>330917.0777174867</v>
       </c>
       <c r="F6" t="n">
-        <v>656329.5395248423</v>
+        <v>656329.5395248428</v>
       </c>
       <c r="G6" t="n">
+        <v>656329.5395248422</v>
+      </c>
+      <c r="H6" t="n">
         <v>656329.5395248424</v>
-      </c>
-      <c r="H6" t="n">
-        <v>656329.5395248419</v>
       </c>
       <c r="I6" t="n">
         <v>656329.5395248424</v>
       </c>
       <c r="J6" t="n">
-        <v>438798.3371275648</v>
+        <v>488724.3617148594</v>
       </c>
       <c r="K6" t="n">
-        <v>640069.7879036723</v>
+        <v>656329.5395248425</v>
       </c>
       <c r="L6" t="n">
-        <v>659497.505897304</v>
+        <v>608035.5695166517</v>
       </c>
       <c r="M6" t="n">
-        <v>574442.4779617921</v>
+        <v>571274.5115893302</v>
       </c>
       <c r="N6" t="n">
-        <v>659497.5058973038</v>
+        <v>656329.5395248424</v>
       </c>
       <c r="O6" t="n">
-        <v>659497.5058973043</v>
+        <v>656329.5395248421</v>
       </c>
       <c r="P6" t="n">
-        <v>656329.5395248422</v>
+        <v>656329.5395248424</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203963</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.268133652481166e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203963</v>
+        <v>3.250528837155401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>150.5776777460626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>216.6839328016745</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>22.92667839385227</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>112.9693819475525</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>192.7170077032564</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.26996180286613</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.8478053623097</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>139.3287823592532</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.17662488027091</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>164.9712587287437</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>30.59231103434161</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>50.26451903726527</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29284,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-3.765531840751312e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,22 +30459,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30514,13 +30516,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203963</v>
+        <v>1.151866248963657e-13</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32087,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>639.8517673857162</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32485,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>640.2652944187043</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860827</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>360.9226811202607</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>618.3047484269334</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15.64270034434984</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>496.3643456887888</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.510055302383</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>498.1312604966861</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640643</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>220.9409070342392</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>479.7503686470593</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3696441.144284837</v>
+        <v>3692345.502780071</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7613647.950485109</v>
+        <v>7613647.950485108</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>260.9700250268913</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>182.9377227717318</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>50.16320161686821</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>173.5536163890385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>394.6060839388453</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>264.4057044336284</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>9.286690658959145</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>95.88590438760293</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>38.94671141087646</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>213.4331505673749</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>115.8416516122276</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>82.70057996958644</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.52129633183167</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>191.7762188374877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881282</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>104.6857048437763</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.043911798778986</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>94.03099112488283</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712621</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>26.07046444232116</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>39.38542099944637</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.24118421664595</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>14.53306611597401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.640152769375668</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>53.82913822150265</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>174.7683347992597</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1454.537269016651</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C2" t="n">
-        <v>1454.537269016651</v>
+        <v>1806.776971395621</v>
       </c>
       <c r="D2" t="n">
-        <v>1096.271570409901</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E2" t="n">
-        <v>1096.271570409901</v>
+        <v>1062.723020190627</v>
       </c>
       <c r="F2" t="n">
-        <v>685.2856656202932</v>
+        <v>651.7371154010191</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>236.0323651253079</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.137109080773</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1852.283970943244</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2184.354406119406</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2431.537139951703</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2546.853055059249</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>769.5800553833139</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C4" t="n">
-        <v>600.6438724554071</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>250.6555853275961</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>250.6555853275961</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>101.9166871911023</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1172.021099357084</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>1172.021099357084</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>951.2285202135537</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.8767859460534</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="C5" t="n">
-        <v>527.8767859460534</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8767859460534</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8767859460534</v>
+        <v>740.9735067177949</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>329.9876019281873</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>318.3232556928803</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218651</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460534</v>
+        <v>1126.761759316039</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>870.329241545892</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.253210781439</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.2888279392355</v>
+        <v>910.6959970014096</v>
       </c>
       <c r="C7" t="n">
-        <v>377.3526450113286</v>
+        <v>741.7598140735028</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962184</v>
+        <v>591.643174661167</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>443.7300810787739</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>296.8401335808635</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827656</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>767.0814070827656</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>767.0814070827656</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.2888279392355</v>
+        <v>1092.344461831649</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3286.265709072931</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.735232346768</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.672345003197</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2348.903689733083</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2348.903689733083</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.764357757271</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>644.3338566427974</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>644.3338566427974</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>644.3338566427974</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y10" t="n">
-        <v>644.3338566427974</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5026,64 +5026,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453428</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8238677453428</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429803</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.5276345711974</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3045.561952449533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2876.625769521626</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3227.210417279773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,7 +5989,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,16 +6065,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
         <v>1373.553594266881</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2102.081746371524</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1813.006519715722</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1558.322031509835</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1268.904861472874</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1048.112282329344</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.53722908186</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153953</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3999.301626420638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953647</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3194.624135499466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3415.416714642996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3194.624135499466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2383.002557118213</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.450525729772</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3662.891569703542</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3662.891569703542</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3442.098990560012</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,22 +7253,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3379.766178509233</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703134</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>695.5020655703134</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>545.3854261579778</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>397.4723325755848</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648821</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611861</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138435</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703134</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.58048154589974</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>280.1079373569285</v>
       </c>
       <c r="M6" t="n">
-        <v>129.4330134067484</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>249.3877325071646</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>126.0028419604372</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.93343655154945</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>85.45266000108569</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>181.8372934928148</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>147.5715612194334</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>123.3744592024054</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>260.4525338942698</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>186.3242343895908</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.5907959652913</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>271.989932220617</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.9445005827191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>91.59190980142847</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
@@ -26322,40 +26322,40 @@
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.614506921984933e-11</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819063</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.027935512</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756539</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756546</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756559</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756672</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-564426.1483367974</v>
+        <v>-564426.1483367973</v>
       </c>
       <c r="C6" t="n">
-        <v>550325.6352391223</v>
+        <v>550325.6352391222</v>
       </c>
       <c r="D6" t="n">
-        <v>390904.36524123</v>
+        <v>390904.3652412298</v>
       </c>
       <c r="E6" t="n">
-        <v>330917.0777174867</v>
+        <v>330569.69846313</v>
       </c>
       <c r="F6" t="n">
-        <v>656329.5395248428</v>
+        <v>655982.1602704854</v>
       </c>
       <c r="G6" t="n">
-        <v>656329.5395248422</v>
+        <v>655982.1602704851</v>
       </c>
       <c r="H6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704852</v>
       </c>
       <c r="I6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704853</v>
       </c>
       <c r="J6" t="n">
-        <v>488724.3617148594</v>
+        <v>488376.9824605028</v>
       </c>
       <c r="K6" t="n">
-        <v>656329.5395248425</v>
+        <v>655982.1602704852</v>
       </c>
       <c r="L6" t="n">
-        <v>608035.5695166517</v>
+        <v>607688.1902622943</v>
       </c>
       <c r="M6" t="n">
-        <v>571274.5115893302</v>
+        <v>570927.1323349731</v>
       </c>
       <c r="N6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704851</v>
       </c>
       <c r="O6" t="n">
-        <v>656329.5395248421</v>
+        <v>655982.1602704853</v>
       </c>
       <c r="P6" t="n">
-        <v>656329.5395248424</v>
+        <v>655982.1602704851</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>150.5776777460626</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>118.0808297906736</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54.63339358703237</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>112.9693819475525</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.26996180286613</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>36.61284812877699</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>139.3287823592532</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>70.42069565720125</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>164.9712587287437</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>135.8078181500381</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>30.59231103434161</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>169.4370633542416</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29286,13 +29286,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.765531840751312e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30459,22 +30459,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30516,13 +30516,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.151866248963657e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710414</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>618.3047484269334</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34780,16 +34780,16 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>15.64270034434984</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>577.7882979947786</v>
       </c>
       <c r="M6" t="n">
-        <v>496.3643456887888</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35038,7 +35038,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>242.0137592966825</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>479.7503686470593</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3692345.502780071</v>
+        <v>3694106.033082857</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>67.62620063870106</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>182.9377227717318</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>50.16320161686821</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.3011250276498</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>226.9009728353684</v>
       </c>
       <c r="H5" t="n">
-        <v>264.4057044336284</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>95.88590438760293</v>
+        <v>24.55276019063764</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>213.4331505673761</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>213.4331505673749</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>72.336405078528</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>82.70057996958644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576166</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.34762173749075</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>113.6427030833203</v>
+        <v>33.58398714687288</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>63.16281301712667</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695594</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.16281301712621</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.739488336033</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.776971395621</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.511272788871</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="E2" t="n">
-        <v>1062.723020190627</v>
+        <v>905.6936235847011</v>
       </c>
       <c r="F2" t="n">
-        <v>651.7371154010191</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>236.0323651253079</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657491</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378422</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255065</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>397.5455328255065</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>250.6555853275961</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6555853275961</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>101.9166871911023</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959889</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1126.761759316039</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C5" t="n">
-        <v>1126.761759316039</v>
+        <v>757.7992423756298</v>
       </c>
       <c r="D5" t="n">
-        <v>1126.761759316039</v>
+        <v>757.7992423756298</v>
       </c>
       <c r="E5" t="n">
-        <v>740.9735067177949</v>
+        <v>757.7992423756298</v>
       </c>
       <c r="F5" t="n">
-        <v>329.9876019281873</v>
+        <v>346.8133375860222</v>
       </c>
       <c r="G5" t="n">
-        <v>318.3232556928803</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190804</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847233</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577119</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316039</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316039</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L6" t="n">
-        <v>870.329241545892</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>910.6959970014096</v>
+        <v>689.9034178578802</v>
       </c>
       <c r="C7" t="n">
-        <v>741.7598140735028</v>
+        <v>520.9672349299733</v>
       </c>
       <c r="D7" t="n">
-        <v>591.643174661167</v>
+        <v>370.8505955176375</v>
       </c>
       <c r="E7" t="n">
-        <v>443.7300810787739</v>
+        <v>222.9375019352444</v>
       </c>
       <c r="F7" t="n">
-        <v>296.8401335808635</v>
+        <v>76.04755443733407</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.344461831649</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.344461831649</v>
+        <v>871.5518826881199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1859.132475219476</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1131.904259672314</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>746.1160070740693</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>335.1301022844618</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>324.0980561698623</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,37 +4898,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>139.5791922690804</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1843.758608725274</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1554.341438688313</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.351887790296</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841094</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7411,22 +7411,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>280.1079373569285</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071646</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>114.3555089013344</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>99.2678512807216</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>138.4949402405077</v>
+        <v>218.5536561769551</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>85.45266000108569</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654256.4952621773</v>
+        <v>654256.4952621774</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654256.4952621774</v>
+        <v>654256.4952621773</v>
       </c>
     </row>
     <row r="15">
@@ -26322,34 +26322,34 @@
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055059</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810782</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756644</v>
-      </c>
       <c r="K4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-564426.1483367973</v>
+        <v>-564426.1483367977</v>
       </c>
       <c r="C6" t="n">
-        <v>550325.6352391222</v>
+        <v>550325.6352391224</v>
       </c>
       <c r="D6" t="n">
-        <v>390904.3652412298</v>
+        <v>390904.3652412299</v>
       </c>
       <c r="E6" t="n">
-        <v>330569.69846313</v>
+        <v>330882.3397920518</v>
       </c>
       <c r="F6" t="n">
-        <v>655982.1602704854</v>
+        <v>656294.8015994068</v>
       </c>
       <c r="G6" t="n">
-        <v>655982.1602704851</v>
+        <v>656294.8015994065</v>
       </c>
       <c r="H6" t="n">
-        <v>655982.1602704852</v>
+        <v>656294.8015994068</v>
       </c>
       <c r="I6" t="n">
-        <v>655982.1602704853</v>
+        <v>656294.8015994064</v>
       </c>
       <c r="J6" t="n">
-        <v>488376.9824605028</v>
+        <v>488689.6237894241</v>
       </c>
       <c r="K6" t="n">
-        <v>655982.1602704852</v>
+        <v>656294.8015994066</v>
       </c>
       <c r="L6" t="n">
-        <v>607688.1902622943</v>
+        <v>608000.8315912159</v>
       </c>
       <c r="M6" t="n">
-        <v>570927.1323349731</v>
+        <v>571239.773663895</v>
       </c>
       <c r="N6" t="n">
-        <v>655982.1602704851</v>
+        <v>656294.8015994063</v>
       </c>
       <c r="O6" t="n">
-        <v>655982.1602704853</v>
+        <v>656294.8015994065</v>
       </c>
       <c r="P6" t="n">
-        <v>655982.1602704851</v>
+        <v>656294.8015994064</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,46 +26959,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>339.2498451030104</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>118.0808297906736</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>54.63339358703237</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>151.3613353340876</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>184.6467299375855</v>
       </c>
       <c r="H5" t="n">
-        <v>36.61284812877699</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>70.42069565720125</v>
+        <v>141.7538398541665</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>81.17461381994431</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>135.8078181500381</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.01601533131009</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>169.4370633542416</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>379.8551982710414</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33912,13 +33912,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>577.7882979947786</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000385</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>230.836231232189</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>242.0137592966825</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
